--- a/src/main/resources/dataEngine/DataEngine.xlsx
+++ b/src/main/resources/dataEngine/DataEngine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10695" windowHeight="1830"/>
+    <workbookView windowWidth="10950" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Subscription_01</t>
+    <t>Subscription_02</t>
   </si>
   <si>
     <t>LogIn in to the Online Store Application</t>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Data Set</t>
+  </si>
+  <si>
+    <t>Subscription</t>
   </si>
   <si>
     <t>TS_001</t>
@@ -363,10 +366,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -820,8 +823,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -871,8 +874,8 @@
   <sheetPr/>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -916,902 +919,902 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:8">
       <c r="A15" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:8">
       <c r="A16" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:8">
       <c r="A17" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:8">
       <c r="A18" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:8">
       <c r="A19" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:8">
       <c r="A20" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:8">
       <c r="A21" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:8">
       <c r="A22" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" customFormat="1" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:8">
       <c r="A24" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:8">
       <c r="A25" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:8">
       <c r="A26" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:8">
       <c r="A27" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:8">
       <c r="A28" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:8">
       <c r="A29" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:8">
       <c r="A30" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:8">
       <c r="A31" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:8">
       <c r="A32" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:8">
       <c r="A33" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:8">
       <c r="A34" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:8">
       <c r="A35" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" customFormat="1" spans="1:8">
       <c r="A36" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:8">
       <c r="A37" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" customFormat="1" spans="1:8">
       <c r="A38" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:8">
       <c r="A39" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1884,118 +1887,118 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2004,12 +2007,12 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2018,7 +2021,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2030,7 +2033,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
